--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/99/word_level_predictions_99.xlsx
@@ -1097,133 +1097,133 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Spot-Check</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Spot-Check</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1282,104 +1282,104 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1797,59 +1797,59 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" t="n">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3726,54 +3726,54 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_B</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G139" s="2" t="b">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G178" t="b">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G179" t="b">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G180" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11838,106 +11838,106 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>14</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>0</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>14</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem4/99/word_level_predictions_99.xlsx
@@ -1097,133 +1097,133 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>AI</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Spot-Check</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Spot-Check</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1282,104 +1282,104 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>5</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1773,83 +1773,83 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>7</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3726,54 +3726,54 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G139" s="2" t="b">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G178" t="b">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G179" t="b">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G180" t="b">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -11838,106 +11838,106 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" t="inlineStr">
+      <c r="D221" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>5</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" t="n">
         <v>7</v>
       </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>8</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>16</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>16</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>11</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>16</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>12</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>16</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>13</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
